--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDB1322-D169-4786-ABA7-AC4462B876F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB4A89-034B-4579-8E36-7ECB1C4AA687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="1665" windowWidth="21600" windowHeight="11295" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -193,6 +193,48 @@
     <t>結合テストレビュー</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5人日</t>
+    <rPh sb="1" eb="3">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人日</t>
+    <rPh sb="1" eb="3">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０人日</t>
+    <rPh sb="2" eb="4">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３人日</t>
+    <rPh sb="1" eb="3">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２０人日</t>
+    <rPh sb="2" eb="4">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７人日</t>
+    <rPh sb="1" eb="3">
+      <t>ニンニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,7 +682,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -667,8 +709,8 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
@@ -676,8 +718,8 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
@@ -687,8 +729,8 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>10</v>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
@@ -696,8 +738,8 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -707,8 +749,8 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>10</v>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -716,8 +758,8 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>3</v>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
@@ -727,8 +769,8 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
-        <v>20</v>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -736,8 +778,8 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
@@ -747,8 +789,8 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2">
-        <v>7</v>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
@@ -756,8 +798,8 @@
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2">
-        <v>20</v>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
@@ -765,8 +807,8 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
-        <v>10</v>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
@@ -774,8 +816,8 @@
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
-        <v>3</v>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
